--- a/game.perfectline/doc/data.xlsx
+++ b/game.perfectline/doc/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="输出" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>道具</t>
   </si>
@@ -319,6 +319,18 @@
       </rPr>
       <t>3,其他</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SliverKey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -799,10 +811,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -857,7 +869,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>21</v>
@@ -913,6 +925,32 @@
       </c>
       <c r="H4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
